--- a/Projectdata_rev3.xlsx
+++ b/Projectdata_rev3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK303"/>
+  <dimension ref="A1:AK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18481,15 +18481,11 @@
           <t>Nein</t>
         </is>
       </c>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="X144" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
+      <c r="W144" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X144" t="n">
+        <v>9.5</v>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
@@ -18642,15 +18638,11 @@
           <t>Nein</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="X145" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
+      <c r="W145" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X145" t="n">
+        <v>9.5</v>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
@@ -34057,19 +34049,11 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
+          <t>Himmelreich</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -34079,58 +34063,60 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Vestas</t>
+          <t>Enercon</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>V136-4.2MW</t>
+          <t>E-115 EP E3</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>10436796</v>
+        <v>10437296</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
+          <t>SEN WP Himmelreich WES Ibs (Erik Rühmann)\</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>IACRUZ</t>
+          <t>ANNJO</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
+          <t>Windpark Himmelreich GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Thurid Kuhk</t>
+          <t>Erik Rühmann</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>WEA 1 von 4</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr"/>
+          <t>WEA 1 von 1</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1160008</v>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>WEA 3 Süd</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Q268" t="n">
-        <v>136</v>
+        <v>115.7</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -34144,21 +34130,13 @@
       </c>
       <c r="T268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
-        </is>
-      </c>
-      <c r="U268" t="inlineStr">
-        <is>
-          <t>SO1</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Unbekannt </t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
-      <c r="W268" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X268" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
       <c r="Y268" t="inlineStr"/>
       <c r="Z268" t="inlineStr"/>
       <c r="AA268" t="inlineStr"/>
@@ -34174,33 +34152,29 @@
       </c>
       <c r="AH268" t="inlineStr">
         <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
+          <t>file:///a:\___Projekte\10437296_2023 E115 SEN WP Himmelreich WES Ibs (Erik Rühmann)\</t>
         </is>
       </c>
       <c r="AI268" t="n">
-        <v>54.203632</v>
+        <v>54.005972</v>
       </c>
       <c r="AJ268" t="n">
-        <v>8.854941999999999</v>
+        <v>9.091288</v>
       </c>
       <c r="AK268" t="n">
-        <v>244292</v>
+        <v>247183</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Nein</t>
+          <t>Nicht genug Infos</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
+          <t>Negrete (Chile)</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -34208,88 +34182,44 @@
           <t>SEN</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>V136-4.2MW</t>
-        </is>
-      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>10436796</v>
+        <v>10437487</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
+          <t>SEN Negrete Chile wpd (Lutz Kindermann)\</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
+          <t>ULMR</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
+          <t>wpd Chile</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Thurid Kuhk</t>
-        </is>
-      </c>
-      <c r="M269" t="inlineStr">
-        <is>
-          <t>WEA 2 von 4</t>
-        </is>
-      </c>
+          <t>Lutz Kindermann</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr"/>
-      <c r="O269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P269" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q269" t="n">
-        <v>136</v>
-      </c>
-      <c r="R269" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="T269" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ja </t>
-        </is>
-      </c>
-      <c r="U269" t="inlineStr">
-        <is>
-          <t>SO1</t>
-        </is>
-      </c>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
       <c r="V269" t="inlineStr"/>
-      <c r="W269" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X269" t="n">
-        <v>9</v>
-      </c>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
       <c r="Y269" t="inlineStr"/>
       <c r="Z269" t="inlineStr"/>
       <c r="AA269" t="inlineStr"/>
@@ -34305,123 +34235,107 @@
       </c>
       <c r="AH269" t="inlineStr">
         <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
-      <c r="AI269" t="n">
-        <v>54.199191</v>
-      </c>
-      <c r="AJ269" t="n">
-        <v>8.86112</v>
-      </c>
-      <c r="AK269" t="n">
-        <v>244292</v>
-      </c>
+          <t>file:///a:\___Projekte\10437487_2023 V150 V136 SEN Negrete Chile wpd (Lutz Kindermann)\</t>
+        </is>
+      </c>
+      <c r="AI269" t="inlineStr"/>
+      <c r="AJ269" t="inlineStr"/>
+      <c r="AK269" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
+          <t>Nicht genug Infos</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Hemme</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>ENERCON</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>E-70</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>10161597</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>SEN WP Hemme (182757)</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>ANNJO</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2019-06-25</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>ENERCON GmbH</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Paul Radons</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>WEA 1 von 2</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>784125</v>
+      </c>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>V136-4.2MW</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
-        <v>10436796</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
-        </is>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Thurid Kuhk</t>
-        </is>
-      </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>WEA 3 von 4</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr"/>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P270" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q270" t="n">
-        <v>136</v>
-      </c>
-      <c r="R270" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
-        </is>
-      </c>
-      <c r="U270" t="inlineStr">
-        <is>
-          <t>SO1</t>
-        </is>
-      </c>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr"/>
       <c r="V270" t="inlineStr"/>
       <c r="W270" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="X270" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y270" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Z270" t="inlineStr"/>
       <c r="AA270" t="inlineStr"/>
       <c r="AB270" t="inlineStr"/>
@@ -34436,33 +34350,25 @@
       </c>
       <c r="AH270" t="inlineStr">
         <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
+          <t xml:space="preserve">file:///A:\___Projekte\10161597_2019 E_70 SEN Hemme ENERCON (Paul Radons) </t>
         </is>
       </c>
       <c r="AI270" t="n">
-        <v>54.196454</v>
+        <v>54.269514</v>
       </c>
       <c r="AJ270" t="n">
-        <v>8.856852999999999</v>
+        <v>8.953030999999999</v>
       </c>
       <c r="AK270" t="n">
-        <v>244292</v>
+        <v>182757</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
+          <t>Dieksanderkoog</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -34472,87 +34378,89 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Vestas</t>
+          <t>Enercon</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>V136-4.2MW</t>
+          <t>E-70 E4</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>10436796</v>
+        <v>10205384</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
+          <t>SEN E70 E4 Dieksanderkoog 783990 (197369)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>IACRUZ</t>
+          <t>ANNJO</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
+          <t>ENERCON GmbH</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Thurid Kuhk</t>
+          <t>Paul Radons</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>WEA 4 von 4</t>
-        </is>
-      </c>
-      <c r="N271" t="inlineStr"/>
+          <t>WEA 1 von 1</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>783990</v>
+      </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>WEA 6</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="Q271" t="n">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="T271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
-        </is>
-      </c>
-      <c r="U271" t="inlineStr">
-        <is>
-          <t>SO1</t>
-        </is>
-      </c>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr"/>
       <c r="W271" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="X271" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y271" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Z271" t="inlineStr"/>
       <c r="AA271" t="inlineStr"/>
       <c r="AB271" t="inlineStr"/>
@@ -34567,68 +34475,72 @@
       </c>
       <c r="AH271" t="inlineStr">
         <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
+          <t xml:space="preserve">file:///A:\___Projekte\10205384_2020 E_70 E4 SEN Dieksanderkoog Enercon GmbH (Paul Radons) </t>
         </is>
       </c>
       <c r="AI271" t="n">
-        <v>54.200472</v>
+        <v>53.957307</v>
       </c>
       <c r="AJ271" t="n">
-        <v>8.850047999999999</v>
+        <v>8.927839000000001</v>
       </c>
       <c r="AK271" t="n">
-        <v>244292</v>
+        <v>197369</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Nicht genug Infos</t>
+        </is>
+      </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Himmelreich</t>
+          <t>Wittenhof</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Enercon</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>E-115 EP E3</t>
+          <t>V126</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>10437296</v>
+        <v>10206151</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>SEN WP Himmelreich WES Ibs (Erik Rühmann)\</t>
+          <t>SIM Wittenhof ENER (194152)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>ANNJO</t>
+          <t>ULFKOC</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Windpark Himmelreich GmbH &amp; Co. KG</t>
+          <t>ENERTRAG SE</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Erik Rühmann</t>
+          <t>Jonas Armbröster</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -34636,44 +34548,46 @@
           <t>WEA 1 von 1</t>
         </is>
       </c>
-      <c r="N272" t="n">
-        <v>1160008</v>
-      </c>
-      <c r="O272" t="inlineStr">
-        <is>
-          <t>WEA 3 Süd</t>
-        </is>
-      </c>
-      <c r="P272" t="n">
-        <v>92</v>
-      </c>
-      <c r="Q272" t="n">
-        <v>115.7</v>
-      </c>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
       <c r="R272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="U272" t="inlineStr"/>
       <c r="V272" t="inlineStr"/>
-      <c r="W272" t="inlineStr"/>
-      <c r="X272" t="inlineStr"/>
-      <c r="Y272" t="inlineStr"/>
+      <c r="W272" t="n">
+        <v>6</v>
+      </c>
+      <c r="X272" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Z272" t="inlineStr"/>
       <c r="AA272" t="inlineStr"/>
       <c r="AB272" t="inlineStr"/>
-      <c r="AC272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr">
+        <is>
+          <t>I_Messungen notwendig wegen hoher Vorbelastung, Telefonat mit T22 geführt</t>
+        </is>
+      </c>
       <c r="AD272" t="inlineStr"/>
       <c r="AE272" t="inlineStr"/>
       <c r="AF272" t="inlineStr"/>
@@ -34684,75 +34598,105 @@
       </c>
       <c r="AH272" t="inlineStr">
         <is>
-          <t>file:///a:\___Projekte\10437296_2023 E115 SEN WP Himmelreich WES Ibs (Erik Rühmann)\</t>
+          <t xml:space="preserve">file:///A:\___Projekte\10206151_2020 V126 SIM Wittenhof ENERTRAG Jonas Armröster (Jonas Armbröster) </t>
         </is>
       </c>
       <c r="AI272" t="n">
-        <v>54.005972</v>
+        <v>53.340331</v>
       </c>
       <c r="AJ272" t="n">
-        <v>9.091288</v>
+        <v>13.898623</v>
       </c>
       <c r="AK272" t="n">
-        <v>247183</v>
+        <v>194152</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Nicht genug Infos</t>
-        </is>
-      </c>
+      <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Negrete (Chile)</t>
+          <t>_Marsberg_Ersatzstandort für Janneby</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Enercon</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>E-138 EP3 E2</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>10437487</v>
+        <v>10212487</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>SEN Negrete Chile wpd (Lutz Kindermann)\</t>
+          <t>SET E137 EP3 E2 Janneby (200062)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>ULMR</t>
-        </is>
-      </c>
-      <c r="J273" t="inlineStr"/>
+          <t>RICFRE</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>wpd Chile</t>
+          <t>ENERCON GmbH</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Lutz Kindermann</t>
+          <t>Fabian Martens</t>
         </is>
       </c>
       <c r="M273" t="inlineStr"/>
-      <c r="N273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1380274</v>
+      </c>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="inlineStr"/>
-      <c r="R273" t="inlineStr"/>
-      <c r="S273" t="inlineStr"/>
-      <c r="T273" t="inlineStr"/>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
       <c r="U273" t="inlineStr"/>
       <c r="V273" t="inlineStr"/>
-      <c r="W273" t="inlineStr"/>
-      <c r="X273" t="inlineStr"/>
-      <c r="Y273" t="inlineStr"/>
+      <c r="W273" t="n">
+        <v>6</v>
+      </c>
+      <c r="X273" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Z273" t="inlineStr"/>
       <c r="AA273" t="inlineStr"/>
       <c r="AB273" t="inlineStr"/>
@@ -34765,58 +34709,56 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH273" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10437487_2023 V150 V136 SEN Negrete Chile wpd (Lutz Kindermann)\</t>
-        </is>
-      </c>
-      <c r="AI273" t="inlineStr"/>
-      <c r="AJ273" t="inlineStr"/>
-      <c r="AK273" t="inlineStr"/>
+      <c r="AH273" t="inlineStr"/>
+      <c r="AI273" t="n">
+        <v>51.519506</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>8.824914</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>200062</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Nicht genug Infos</t>
-        </is>
-      </c>
+      <c r="B274" t="inlineStr"/>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Hemme</t>
+          <t>_Suederhackstedt_Ersatzstandort fuer Janneby</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SET</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>ENERCON</t>
+          <t>Enercon</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>E-70</t>
+          <t>E-138 EP3 E2</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>10161597</v>
+        <v>10212487</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>SEN WP Hemme (182757)</t>
+          <t>SET E137 EP3 E2 Janneby (200062)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>ANNJO</t>
+          <t>RICFRE</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>2019-06-25</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -34826,42 +34768,34 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Paul Radons</t>
-        </is>
-      </c>
-      <c r="M274" t="inlineStr">
-        <is>
-          <t>WEA 1 von 2</t>
-        </is>
-      </c>
+          <t>Fabian Martens</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr"/>
       <c r="N274" t="n">
-        <v>784125</v>
-      </c>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
-      <c r="Q274" t="inlineStr"/>
-      <c r="R274" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S274" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="T274" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
+        <v>1380456</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>WEA 1</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>138</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr"/>
       <c r="U274" t="inlineStr"/>
       <c r="V274" t="inlineStr"/>
       <c r="W274" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X274" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y274" t="inlineStr">
         <is>
@@ -34872,35 +34806,51 @@
       <c r="AA274" t="inlineStr"/>
       <c r="AB274" t="inlineStr"/>
       <c r="AC274" t="inlineStr"/>
-      <c r="AD274" t="inlineStr"/>
-      <c r="AE274" t="inlineStr"/>
-      <c r="AF274" t="inlineStr"/>
+      <c r="AD274" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>2022-05-13</t>
+        </is>
+      </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
       <c r="AG274" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10161597_2019 E_70 SEN Hemme ENERCON (Paul Radons) </t>
-        </is>
-      </c>
+      <c r="AH274" t="inlineStr"/>
       <c r="AI274" t="n">
-        <v>54.269514</v>
+        <v>54.58004</v>
       </c>
       <c r="AJ274" t="n">
-        <v>8.953030999999999</v>
+        <v>9.272550000000001</v>
       </c>
       <c r="AK274" t="n">
-        <v>182757</v>
+        <v>200062</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr"/>
-      <c r="B275" t="inlineStr"/>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Dieksanderkoog</t>
+          <t>WP Wulkow</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -34910,35 +34860,35 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Enercon</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>E-70 E4</t>
+          <t>V150</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>10205384</v>
+        <v>10341314</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>SEN E70 E4 Dieksanderkoog 783990 (197369)</t>
+          <t>SEN WP Wulkow (228601)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>ANNJO</t>
+          <t>IACRUZ</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>ENERCON GmbH</t>
+          <t>UGE Treplin GmbH &amp; Co. KG Umweltgerechte Energie</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -34952,18 +34902,18 @@
         </is>
       </c>
       <c r="N275" t="n">
-        <v>783990</v>
+        <v>242290</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>WEA 6</t>
+          <t>WEA1</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="Q275" t="n">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -34977,16 +34927,24 @@
       </c>
       <c r="T275" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="U275" t="inlineStr"/>
-      <c r="V275" t="inlineStr"/>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>PO6000, SO2.1</t>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
       <c r="W275" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="X275" t="n">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y275" t="inlineStr">
         <is>
@@ -34994,10 +34952,18 @@
         </is>
       </c>
       <c r="Z275" t="inlineStr"/>
-      <c r="AA275" t="inlineStr"/>
+      <c r="AA275" t="inlineStr">
+        <is>
+          <t>Steven Koch (Heliotec)</t>
+        </is>
+      </c>
       <c r="AB275" t="inlineStr"/>
       <c r="AC275" t="inlineStr"/>
-      <c r="AD275" t="inlineStr"/>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t>2022-05-21</t>
+        </is>
+      </c>
       <c r="AE275" t="inlineStr"/>
       <c r="AF275" t="inlineStr"/>
       <c r="AG275" t="inlineStr">
@@ -35007,34 +34973,38 @@
       </c>
       <c r="AH275" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10205384_2020 E_70 E4 SEN Dieksanderkoog Enercon GmbH (Paul Radons) </t>
+          <t xml:space="preserve">file:///A:\___Projekte\10341314_2022 V150 SEN WP Wulkow UKA (Paul Radons) </t>
         </is>
       </c>
       <c r="AI275" t="n">
-        <v>53.957307</v>
+        <v>52.396675</v>
       </c>
       <c r="AJ275" t="n">
-        <v>8.927839000000001</v>
+        <v>14.427526</v>
       </c>
       <c r="AK275" t="n">
-        <v>197369</v>
+        <v>228601</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr"/>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Nicht genug Infos</t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Wittenhof</t>
+          <t>Seelow-Gusow</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -35044,35 +35014,35 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>V126</t>
+          <t>V150 5.6</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>10206151</v>
+        <v>10365480</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>SIM Wittenhof ENER (194152)</t>
+          <t>SEN V150 Seelow-Gusow (230518)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>ULFKOC</t>
+          <t>IACRUZ</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>ENERTRAG SE</t>
+          <t>UGE Gusow GmbH &amp; Co. KG Umweltgerechte Energie</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Jonas Armbröster</t>
+          <t>Paul Radons</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -35080,10 +35050,22 @@
           <t>WEA 1 von 1</t>
         </is>
       </c>
-      <c r="N276" t="inlineStr"/>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
-      <c r="Q276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>V242085</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>WEA Gusow 1</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>150</v>
+      </c>
       <c r="R276" t="inlineStr">
         <is>
           <t>Unbekannt</t>
@@ -35099,27 +35081,35 @@
           <t>Ja</t>
         </is>
       </c>
-      <c r="U276" t="inlineStr"/>
-      <c r="V276" t="inlineStr"/>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>PO5600, SO2.1</t>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
       <c r="W276" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="X276" t="n">
-        <v>16</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NNW</t>
         </is>
       </c>
       <c r="Z276" t="inlineStr"/>
-      <c r="AA276" t="inlineStr"/>
+      <c r="AA276" t="inlineStr">
+        <is>
+          <t>Energy Consult, Edinatur, Private Eigentum</t>
+        </is>
+      </c>
       <c r="AB276" t="inlineStr"/>
-      <c r="AC276" t="inlineStr">
-        <is>
-          <t>I_Messungen notwendig wegen hoher Vorbelastung, Telefonat mit T22 geführt</t>
-        </is>
-      </c>
+      <c r="AC276" t="inlineStr"/>
       <c r="AD276" t="inlineStr"/>
       <c r="AE276" t="inlineStr"/>
       <c r="AF276" t="inlineStr"/>
@@ -35130,99 +35120,129 @@
       </c>
       <c r="AH276" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10206151_2020 V126 SIM Wittenhof ENERTRAG Jonas Armröster (Jonas Armbröster) </t>
+          <t xml:space="preserve">file:///A:\___Projekte\10365480_2022 V150 56 SEN Seelow_Gusow UGE (Paul Radons) </t>
         </is>
       </c>
       <c r="AI276" t="n">
-        <v>53.340331</v>
+        <v>52.549561</v>
       </c>
       <c r="AJ276" t="n">
-        <v>13.898623</v>
+        <v>14.339161</v>
       </c>
       <c r="AK276" t="n">
-        <v>194152</v>
+        <v>230518</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr"/>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>_Marsberg_Ersatzstandort für Janneby</t>
+          <t>Dammfleth</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>SET</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Enercon</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>E-138 EP3 E2</t>
+          <t>V136</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>10212487</v>
+        <v>10385875</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>SET E137 EP3 E2 Janneby (200062)</t>
+          <t>SEN 2V136 Dammfleth (228853)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>RICFRE</t>
+          <t>IACRUZ</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>ENERCON GmbH</t>
+          <t>Windpark Rothenmeer GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Fabian Martens</t>
-        </is>
-      </c>
-      <c r="M277" t="inlineStr"/>
-      <c r="N277" t="n">
-        <v>1380274</v>
-      </c>
-      <c r="O277" t="inlineStr"/>
-      <c r="P277" t="inlineStr"/>
-      <c r="Q277" t="inlineStr"/>
+          <t>Lars Andersen</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>WEA 1 von 2</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>V244067</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>WEA 79/1</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>136</v>
+      </c>
       <c r="R277" t="inlineStr">
         <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="S277" t="inlineStr">
+      <c r="T277" t="inlineStr">
         <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="T277" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="U277" t="inlineStr"/>
-      <c r="V277" t="inlineStr"/>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>SO1</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
       <c r="W277" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="X277" t="n">
-        <v>16</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y277" t="inlineStr">
         <is>
@@ -35230,9 +35250,17 @@
         </is>
       </c>
       <c r="Z277" t="inlineStr"/>
-      <c r="AA277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr">
+        <is>
+          <t>WES Ibs, Windpark Hochfeld</t>
+        </is>
+      </c>
       <c r="AB277" t="inlineStr"/>
-      <c r="AC277" t="inlineStr"/>
+      <c r="AC277" t="inlineStr">
+        <is>
+          <t>Kunde keine große Hilfe in der Planung</t>
+        </is>
+      </c>
       <c r="AD277" t="inlineStr"/>
       <c r="AE277" t="inlineStr"/>
       <c r="AF277" t="inlineStr"/>
@@ -35241,93 +35269,131 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH277" t="inlineStr"/>
+      <c r="AH277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">file:///A:\___Projekte\10385875_2022 V136 SEN WP Dammfleth Eurowind (Federico Alcalde Burella) </t>
+        </is>
+      </c>
       <c r="AI277" t="n">
-        <v>51.519506</v>
+        <v>53.887615</v>
       </c>
       <c r="AJ277" t="n">
-        <v>8.824914</v>
+        <v>9.359029</v>
       </c>
       <c r="AK277" t="n">
-        <v>200062</v>
+        <v>228853</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
-      <c r="B278" t="inlineStr"/>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>_Suederhackstedt_Ersatzstandort fuer Janneby</t>
+          <t>Dammfleth</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>SET</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Enercon</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>E-138 EP3 E2</t>
+          <t>V136</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>10212487</v>
+        <v>10385875</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>SET E137 EP3 E2 Janneby (200062)</t>
+          <t>SEN 2V136 Dammfleth (228853)</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>RICFRE</t>
+          <t>IACRUZ</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>ENERCON GmbH</t>
+          <t>Windpark Rothenmeer GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Fabian Martens</t>
-        </is>
-      </c>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="n">
-        <v>1380456</v>
+          <t>Lars Andersen</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>WEA 2 von 2</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>V244068</t>
+        </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>WEA 1</t>
+          <t>WEA 69/1</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="Q278" t="n">
-        <v>138</v>
-      </c>
-      <c r="R278" t="inlineStr"/>
-      <c r="S278" t="inlineStr"/>
-      <c r="T278" t="inlineStr"/>
-      <c r="U278" t="inlineStr"/>
-      <c r="V278" t="inlineStr"/>
+        <v>136</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>SO1</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
       <c r="W278" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="X278" t="n">
-        <v>16</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y278" t="inlineStr">
         <is>
@@ -35335,54 +35401,54 @@
         </is>
       </c>
       <c r="Z278" t="inlineStr"/>
-      <c r="AA278" t="inlineStr"/>
+      <c r="AA278" t="inlineStr">
+        <is>
+          <t>WES Ibs, Windpark Hochfeld</t>
+        </is>
+      </c>
       <c r="AB278" t="inlineStr"/>
-      <c r="AC278" t="inlineStr"/>
-      <c r="AD278" t="inlineStr">
-        <is>
-          <t>2022-01-20</t>
-        </is>
-      </c>
-      <c r="AE278" t="inlineStr">
-        <is>
-          <t>2022-05-13</t>
-        </is>
-      </c>
-      <c r="AF278" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
+      <c r="AC278" t="inlineStr">
+        <is>
+          <t>Kunde keine große Hilfe in der Planung</t>
+        </is>
+      </c>
+      <c r="AD278" t="inlineStr"/>
+      <c r="AE278" t="inlineStr"/>
+      <c r="AF278" t="inlineStr"/>
       <c r="AG278" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH278" t="inlineStr"/>
+      <c r="AH278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">file:///A:\___Projekte\10385875_2022 V136 SEN WP Dammfleth Eurowind (Federico Alcalde Burella) </t>
+        </is>
+      </c>
       <c r="AI278" t="n">
-        <v>54.58004</v>
+        <v>53.88512</v>
       </c>
       <c r="AJ278" t="n">
-        <v>9.272550000000001</v>
+        <v>9.36036</v>
       </c>
       <c r="AK278" t="n">
-        <v>200062</v>
+        <v>228853</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>WP Wulkow</t>
+          <t>WP Silberpatweg Aachen</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -35392,20 +35458,20 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Vestas</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>V150</t>
+          <t>GE 2.75-120</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>10341314</v>
+        <v>10392989</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>SEN WP Wulkow (228601)</t>
+          <t>SEN WP Silberpatweg Aachen GE Wind Energy (Björn Schierenbeck)\</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -35415,56 +35481,58 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>UGE Treplin GmbH &amp; Co. KG Umweltgerechte Energie</t>
+          <t xml:space="preserve">GE Wind Energy </t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Paul Radons</t>
+          <t>Björn Schierenbeck</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>WEA 1 von 1</t>
-        </is>
-      </c>
-      <c r="N279" t="n">
-        <v>242290</v>
+          <t>WEA 1 von 2</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>GE27171217</t>
+        </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>WEA1</t>
+          <t>WEA16</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="Q279" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t xml:space="preserve">Ja </t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t xml:space="preserve">Unbekannt </t>
         </is>
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t xml:space="preserve">Unbekannt </t>
         </is>
       </c>
       <c r="U279" t="inlineStr">
         <is>
-          <t>PO6000, SO2.1</t>
+          <t>NRO100</t>
         </is>
       </c>
       <c r="V279" t="inlineStr">
@@ -35472,15 +35540,11 @@
           <t>Nein</t>
         </is>
       </c>
-      <c r="W279" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X279" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="W279" t="n">
+        <v>5</v>
+      </c>
+      <c r="X279" t="n">
+        <v>8.5</v>
       </c>
       <c r="Y279" t="inlineStr">
         <is>
@@ -35488,16 +35552,16 @@
         </is>
       </c>
       <c r="Z279" t="inlineStr"/>
-      <c r="AA279" t="inlineStr">
-        <is>
-          <t>Steven Koch (Heliotec)</t>
-        </is>
-      </c>
+      <c r="AA279" t="inlineStr"/>
       <c r="AB279" t="inlineStr"/>
-      <c r="AC279" t="inlineStr"/>
+      <c r="AC279" t="inlineStr">
+        <is>
+          <t>Autobahn in unmittelbare Nähe, Messung unbediengt in der Nacht und Wochenende</t>
+        </is>
+      </c>
       <c r="AD279" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="AE279" t="inlineStr"/>
@@ -35509,117 +35573,117 @@
       </c>
       <c r="AH279" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10341314_2022 V150 SEN WP Wulkow UKA (Paul Radons) </t>
+          <t>a:\___Projekte\10392989_2022 GE 275_120 SEN WP Silberpatweg Aachen GE Wind Energy (Björn Schierenbeck)\</t>
         </is>
       </c>
       <c r="AI279" t="n">
-        <v>52.396675</v>
+        <v>50.822714</v>
       </c>
       <c r="AJ279" t="n">
-        <v>14.427526</v>
+        <v>6.028481</v>
       </c>
       <c r="AK279" t="n">
-        <v>228601</v>
+        <v>242541</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>WP Holstenniendorf</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Siemens Gamesa</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>SG 5.0-132</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>10424582</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>IACRUZ</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iTerra Wind GmbH </t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Jens Sieger</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>WEA 1 von 4</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>S58217</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WEA 01 </t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>132</v>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unbekannt </t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unbekannt </t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Seelow-Gusow</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>V150 5.6</t>
-        </is>
-      </c>
-      <c r="G280" t="n">
-        <v>10365480</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>SEN V150 Seelow-Gusow (230518)</t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>2022-05-31</t>
-        </is>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>UGE Gusow GmbH &amp; Co. KG Umweltgerechte Energie</t>
-        </is>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>Paul Radons</t>
-        </is>
-      </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>WEA 1 von 1</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>V242085</t>
-        </is>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>WEA Gusow 1</t>
-        </is>
-      </c>
-      <c r="P280" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q280" t="n">
-        <v>150</v>
-      </c>
-      <c r="R280" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="S280" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="T280" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>PO5600, SO2.1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
@@ -35627,27 +35691,15 @@
           <t>Nein</t>
         </is>
       </c>
-      <c r="W280" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="X280" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="Y280" t="inlineStr">
-        <is>
-          <t>NNW</t>
-        </is>
-      </c>
+      <c r="W280" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X280" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y280" t="inlineStr"/>
       <c r="Z280" t="inlineStr"/>
-      <c r="AA280" t="inlineStr">
-        <is>
-          <t>Energy Consult, Edinatur, Private Eigentum</t>
-        </is>
-      </c>
+      <c r="AA280" t="inlineStr"/>
       <c r="AB280" t="inlineStr"/>
       <c r="AC280" t="inlineStr"/>
       <c r="AD280" t="inlineStr"/>
@@ -35660,151 +35712,135 @@
       </c>
       <c r="AH280" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10365480_2022 V150 56 SEN Seelow_Gusow UGE (Paul Radons) </t>
+          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
         </is>
       </c>
       <c r="AI280" t="n">
-        <v>52.549561</v>
+        <v>54.055234</v>
       </c>
       <c r="AJ280" t="n">
-        <v>14.339161</v>
+        <v>9.325253999999999</v>
       </c>
       <c r="AK280" t="n">
-        <v>230518</v>
+        <v>243369</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>WP Holstenniendorf</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Siemens Gamesa</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>SG 5.0-132</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>10424582</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>IACRUZ</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iTerra Wind GmbH </t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Jens Sieger</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>WEA 2 von 4</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>S58231</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WEA 02 </t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>132</v>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unbekannt </t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unbekannt </t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Dammfleth</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>V136</t>
-        </is>
-      </c>
-      <c r="G281" t="n">
-        <v>10385875</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>SEN 2V136 Dammfleth (228853)</t>
-        </is>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>Windpark Rothenmeer GmbH &amp; Co. KG</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>Lars Andersen</t>
-        </is>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>WEA 1 von 2</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>V244067</t>
-        </is>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>WEA 79/1</t>
-        </is>
-      </c>
-      <c r="P281" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q281" t="n">
-        <v>136</v>
-      </c>
-      <c r="R281" t="inlineStr">
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
         <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="S281" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T281" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U281" t="inlineStr">
-        <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="V281" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W281" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="X281" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="Y281" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="W281" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X281" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y281" t="inlineStr"/>
       <c r="Z281" t="inlineStr"/>
-      <c r="AA281" t="inlineStr">
-        <is>
-          <t>WES Ibs, Windpark Hochfeld</t>
-        </is>
-      </c>
+      <c r="AA281" t="inlineStr"/>
       <c r="AB281" t="inlineStr"/>
-      <c r="AC281" t="inlineStr">
-        <is>
-          <t>Kunde keine große Hilfe in der Planung</t>
-        </is>
-      </c>
+      <c r="AC281" t="inlineStr"/>
       <c r="AD281" t="inlineStr"/>
       <c r="AE281" t="inlineStr"/>
       <c r="AF281" t="inlineStr"/>
@@ -35815,151 +35851,135 @@
       </c>
       <c r="AH281" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10385875_2022 V136 SEN WP Dammfleth Eurowind (Federico Alcalde Burella) </t>
+          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
         </is>
       </c>
       <c r="AI281" t="n">
-        <v>53.887615</v>
+        <v>54.05504</v>
       </c>
       <c r="AJ281" t="n">
-        <v>9.359029</v>
+        <v>9.330431000000001</v>
       </c>
       <c r="AK281" t="n">
-        <v>228853</v>
+        <v>243369</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>WP Holstenniendorf</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Siemens Gamesa</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>SG 5.0-132</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>10424582</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>IACRUZ</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iTerra Wind GmbH </t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>Jens Sieger</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>WEA 3 von 4</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>S58238</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>WEA 03</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>132</v>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Dammfleth</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>V136</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
-        <v>10385875</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>SEN 2V136 Dammfleth (228853)</t>
-        </is>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>Windpark Rothenmeer GmbH &amp; Co. KG</t>
-        </is>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>Lars Andersen</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>WEA 2 von 2</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>V244068</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>WEA 69/1</t>
-        </is>
-      </c>
-      <c r="P282" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q282" t="n">
-        <v>136</v>
-      </c>
-      <c r="R282" t="inlineStr">
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
         <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="S282" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T282" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U282" t="inlineStr">
-        <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="V282" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W282" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="X282" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="Y282" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="W282" t="n">
+        <v>6</v>
+      </c>
+      <c r="X282" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y282" t="inlineStr"/>
       <c r="Z282" t="inlineStr"/>
-      <c r="AA282" t="inlineStr">
-        <is>
-          <t>WES Ibs, Windpark Hochfeld</t>
-        </is>
-      </c>
+      <c r="AA282" t="inlineStr"/>
       <c r="AB282" t="inlineStr"/>
-      <c r="AC282" t="inlineStr">
-        <is>
-          <t>Kunde keine große Hilfe in der Planung</t>
-        </is>
-      </c>
+      <c r="AC282" t="inlineStr"/>
       <c r="AD282" t="inlineStr"/>
       <c r="AE282" t="inlineStr"/>
       <c r="AF282" t="inlineStr"/>
@@ -35970,23 +35990,23 @@
       </c>
       <c r="AH282" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10385875_2022 V136 SEN WP Dammfleth Eurowind (Federico Alcalde Burella) </t>
+          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
         </is>
       </c>
       <c r="AI282" t="n">
-        <v>53.88512</v>
+        <v>54.056457</v>
       </c>
       <c r="AJ282" t="n">
-        <v>9.36036</v>
+        <v>9.335056</v>
       </c>
       <c r="AK282" t="n">
-        <v>228853</v>
+        <v>243369</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -35996,7 +36016,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>WP Silberpatweg Aachen</t>
+          <t>WP Holstenniendorf</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -36006,20 +36026,20 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Siemens Gamesa</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>GE 2.75-120</t>
+          <t>SG 5.0-132</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>10392989</v>
+        <v>10424582</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>SEN WP Silberpatweg Aachen GE Wind Energy (Björn Schierenbeck)\</t>
+          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -36029,58 +36049,58 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t xml:space="preserve">GE Wind Energy </t>
+          <t xml:space="preserve">iTerra Wind GmbH </t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Björn Schierenbeck</t>
+          <t>Jens Sieger</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>WEA 1 von 2</t>
+          <t>WEA 4 von 4</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>GE27171217</t>
+          <t>S58239</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>WEA16</t>
+          <t>WEA 04</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="Q283" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="T283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>NRO100</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
@@ -36088,34 +36108,18 @@
           <t>Nein</t>
         </is>
       </c>
-      <c r="W283" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="X283" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="Y283" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="W283" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X283" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y283" t="inlineStr"/>
       <c r="Z283" t="inlineStr"/>
       <c r="AA283" t="inlineStr"/>
       <c r="AB283" t="inlineStr"/>
-      <c r="AC283" t="inlineStr">
-        <is>
-          <t>Autobahn in unmittelbare Nähe, Messung unbediengt in der Nacht und Wochenende</t>
-        </is>
-      </c>
-      <c r="AD283" t="inlineStr">
-        <is>
-          <t>2023-01-08</t>
-        </is>
-      </c>
+      <c r="AC283" t="inlineStr"/>
+      <c r="AD283" t="inlineStr"/>
       <c r="AE283" t="inlineStr"/>
       <c r="AF283" t="inlineStr"/>
       <c r="AG283" t="inlineStr">
@@ -36125,33 +36129,33 @@
       </c>
       <c r="AH283" t="inlineStr">
         <is>
-          <t>a:\___Projekte\10392989_2022 GE 275_120 SEN WP Silberpatweg Aachen GE Wind Energy (Björn Schierenbeck)\</t>
+          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
         </is>
       </c>
       <c r="AI283" t="n">
-        <v>50.822714</v>
+        <v>54.05637</v>
       </c>
       <c r="AJ283" t="n">
-        <v>6.028481</v>
+        <v>9.340127000000001</v>
       </c>
       <c r="AK283" t="n">
-        <v>242541</v>
+        <v>243369</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Nein</t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>WP Holstenniendorf</t>
+          <t>Regesborstel</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -36161,20 +36165,20 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Siemens Gamesa</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>SG 5.0-132</t>
+          <t>V150-5.6 MW</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>10424582</v>
+        <v>10434812</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
+          <t>SEN Regesborstel (246796)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -36184,80 +36188,80 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t xml:space="preserve">iTerra Wind GmbH </t>
+          <t>Notus energy Plan GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Jens Sieger</t>
+          <t>Paula Kock</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>WEA 1 von 4</t>
+          <t>WEA 2 von 2</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>S58217</t>
+          <t>243431</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEA 01 </t>
+          <t>4</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="Q284" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="T284" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="V284" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W284" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="X284" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="Y284" t="inlineStr"/>
+          <t>SO2</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X284" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
       <c r="Z284" t="inlineStr"/>
       <c r="AA284" t="inlineStr"/>
       <c r="AB284" t="inlineStr"/>
-      <c r="AC284" t="inlineStr"/>
+      <c r="AC284" t="inlineStr">
+        <is>
+          <t>AP Parallel zur E-Messung</t>
+        </is>
+      </c>
       <c r="AD284" t="inlineStr"/>
       <c r="AE284" t="inlineStr"/>
       <c r="AF284" t="inlineStr"/>
@@ -36268,23 +36272,23 @@
       </c>
       <c r="AH284" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
+          <t>file:///a:\___Projekte\10434812_2023 V150 SEN Regesbostel Notus energy Plan GmbH (Paula Kock)\</t>
         </is>
       </c>
       <c r="AI284" t="n">
-        <v>54.055234</v>
+        <v>53.391086</v>
       </c>
       <c r="AJ284" t="n">
-        <v>9.325253999999999</v>
+        <v>9.635229000000001</v>
       </c>
       <c r="AK284" t="n">
-        <v>243369</v>
+        <v>246796</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -36294,7 +36298,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>WP Holstenniendorf</t>
+          <t>Hellschen-Heringsand-Unterschaar</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -36304,20 +36308,20 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Siemens Gamesa</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>SG 5.0-132</t>
+          <t>V136-4.2MW</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>10424582</v>
+        <v>10436796</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
+          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -36327,39 +36331,35 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t xml:space="preserve">iTerra Wind GmbH </t>
+          <t>Repowering Windpark HHU Pool GmbH</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Jens Sieger</t>
+          <t>Thurid Kuhk</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>WEA 2 von 4</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>S58231</t>
-        </is>
-      </c>
+          <t>WEA 1 von 4</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEA 02 </t>
+          <t>1</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q285" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -36373,28 +36373,20 @@
       </c>
       <c r="T285" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t xml:space="preserve">Ja </t>
         </is>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="V285" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W285" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="X285" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
+          <t>SO1</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X285" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="Y285" t="inlineStr"/>
       <c r="Z285" t="inlineStr"/>
@@ -36411,98 +36403,94 @@
       </c>
       <c r="AH285" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
+          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="AI285" t="n">
-        <v>54.05504</v>
+        <v>54.203632</v>
       </c>
       <c r="AJ285" t="n">
-        <v>9.330431000000001</v>
+        <v>8.854941999999999</v>
       </c>
       <c r="AK285" t="n">
-        <v>243369</v>
+        <v>244292</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Hellschen-Heringsand-Unterschaar</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Vestas</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>V136-4.2MW</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>10436796</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>IACRUZ</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Repowering Windpark HHU Pool GmbH</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Thurid Kuhk</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>WEA 2 von 4</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>WP Holstenniendorf</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Siemens Gamesa</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>SG 5.0-132</t>
-        </is>
-      </c>
-      <c r="G286" t="n">
-        <v>10424582</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
-        </is>
-      </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t xml:space="preserve">iTerra Wind GmbH </t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Jens Sieger</t>
-        </is>
-      </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>WEA 3 von 4</t>
-        </is>
-      </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>S58238</t>
-        </is>
-      </c>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>WEA 03</t>
-        </is>
-      </c>
       <c r="P286" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="Q286" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -36516,28 +36504,20 @@
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t xml:space="preserve">Ja </t>
         </is>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="V286" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W286" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="X286" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
+          <t>SO1</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X286" t="n">
+        <v>9</v>
       </c>
       <c r="Y286" t="inlineStr"/>
       <c r="Z286" t="inlineStr"/>
@@ -36554,23 +36534,23 @@
       </c>
       <c r="AH286" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
+          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="AI286" t="n">
-        <v>54.056457</v>
+        <v>54.199191</v>
       </c>
       <c r="AJ286" t="n">
-        <v>9.335056</v>
+        <v>8.86112</v>
       </c>
       <c r="AK286" t="n">
-        <v>243369</v>
+        <v>244292</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -36580,7 +36560,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>WP Holstenniendorf</t>
+          <t>Hellschen-Heringsand-Unterschaar</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -36590,20 +36570,20 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Siemens Gamesa</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>SG 5.0-132</t>
+          <t>V136-4.2MW</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>10424582</v>
+        <v>10436796</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger)\</t>
+          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -36613,39 +36593,35 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t xml:space="preserve">iTerra Wind GmbH </t>
+          <t>Repowering Windpark HHU Pool GmbH</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Jens Sieger</t>
+          <t>Thurid Kuhk</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>WEA 4 von 4</t>
-        </is>
-      </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>S58239</t>
-        </is>
-      </c>
+          <t>WEA 3 von 4</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>WEA 04</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="Q287" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -36659,28 +36635,20 @@
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t xml:space="preserve">Ja </t>
         </is>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="V287" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W287" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="X287" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
+          <t>SO1</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X287" t="n">
+        <v>9</v>
       </c>
       <c r="Y287" t="inlineStr"/>
       <c r="Z287" t="inlineStr"/>
@@ -36697,33 +36665,33 @@
       </c>
       <c r="AH287" t="inlineStr">
         <is>
-          <t xml:space="preserve">file:///A:\___Projekte\10424582_2023 SG 50_132 SEN WP Holstenniendorf iTerra Wind GmbH (Jens Sieger) </t>
+          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="AI287" t="n">
-        <v>54.05637</v>
+        <v>54.196454</v>
       </c>
       <c r="AJ287" t="n">
-        <v>9.340127000000001</v>
+        <v>8.856852999999999</v>
       </c>
       <c r="AK287" t="n">
-        <v>243369</v>
+        <v>244292</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Asch</t>
+          <t>Hellschen-Heringsand-Unterschaar</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -36733,20 +36701,20 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Enercon</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>E82</t>
+          <t>V136-4.2MW</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>10431580</v>
+        <v>10436796</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>SEN WP Asch E82 (245521)</t>
+          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -36756,84 +36724,68 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>ENERCON GmbH</t>
+          <t>Repowering Windpark HHU Pool GmbH</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Mirko Martens</t>
+          <t>Thurid Kuhk</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>WEA 1 von 2</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>E826801</t>
-        </is>
-      </c>
-      <c r="O288" t="inlineStr"/>
+          <t>WEA 4 von 4</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P288" t="n">
-        <v>108.4</v>
+        <v>112</v>
       </c>
       <c r="Q288" t="n">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t xml:space="preserve">Unbekannt </t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t xml:space="preserve">Unbekannt </t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t xml:space="preserve">Ja </t>
         </is>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>BM 0</t>
-        </is>
-      </c>
-      <c r="V288" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="W288" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="X288" t="inlineStr">
-        <is>
-          <t>10.3</t>
-        </is>
-      </c>
-      <c r="Y288" t="inlineStr">
-        <is>
-          <t>WWN</t>
-        </is>
-      </c>
+          <t>SO1</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X288" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y288" t="inlineStr"/>
       <c r="Z288" t="inlineStr"/>
       <c r="AA288" t="inlineStr"/>
       <c r="AB288" t="inlineStr"/>
-      <c r="AC288" t="inlineStr">
-        <is>
-          <t>AP Parallel</t>
-        </is>
-      </c>
+      <c r="AC288" t="inlineStr"/>
       <c r="AD288" t="inlineStr"/>
       <c r="AE288" t="inlineStr"/>
       <c r="AF288" t="inlineStr"/>
@@ -36844,144 +36796,160 @@
       </c>
       <c r="AH288" t="inlineStr">
         <is>
-          <t>file:///a:\___Projekte\10431580_2023 E82 SEN WP Asch WRD (Mirko Martens)\</t>
+          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
         </is>
       </c>
       <c r="AI288" t="n">
-        <v>49.859851</v>
+        <v>54.200472</v>
       </c>
       <c r="AJ288" t="n">
-        <v>12.459944</v>
+        <v>8.850047999999999</v>
       </c>
       <c r="AK288" t="n">
-        <v>245521</v>
+        <v>244292</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
+          <t>on hold</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Remmels</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>GE 5.3-158</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>10440879</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>SEN WP Remmels GE Wind Energy GmbH (Sabrina Apke)</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>FELPLA</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>GE Wind Energy GmbH</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>Bo Schierenbeck</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>WEA 1 von 2</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>GE552016378</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>WEA 2</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>158</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Asch</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Enercon</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>E82</t>
-        </is>
-      </c>
-      <c r="G289" t="n">
-        <v>10431580</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>SEN WP Asch E82 (245521)</t>
-        </is>
-      </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J289" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>ENERCON GmbH</t>
-        </is>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>Mirko Martens</t>
-        </is>
-      </c>
-      <c r="M289" t="inlineStr">
-        <is>
-          <t>WEA 2 von 2</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>E826802</t>
-        </is>
-      </c>
-      <c r="O289" t="inlineStr"/>
-      <c r="P289" t="n">
-        <v>108.4</v>
-      </c>
-      <c r="Q289" t="n">
-        <v>82</v>
-      </c>
-      <c r="R289" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="S289" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
       <c r="T289" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="U289" t="inlineStr">
         <is>
-          <t>BM 0</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="V289" t="inlineStr">
         <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="W289" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="X289" t="inlineStr">
-        <is>
-          <t>10.3</t>
-        </is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W289" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X289" t="n">
+        <v>8.9</v>
       </c>
       <c r="Y289" t="inlineStr">
         <is>
-          <t>WSW</t>
-        </is>
-      </c>
-      <c r="Z289" t="inlineStr"/>
-      <c r="AA289" t="inlineStr"/>
-      <c r="AB289" t="inlineStr"/>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA289" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="AB289" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
       <c r="AC289" t="inlineStr">
         <is>
-          <t>AP Parallel</t>
-        </is>
-      </c>
-      <c r="AD289" t="inlineStr"/>
+          <t>Bins &gt; 10.5 fehlen; WEA ab 2023-07-17 messklar</t>
+        </is>
+      </c>
+      <c r="AD289" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
       <c r="AE289" t="inlineStr"/>
       <c r="AF289" t="inlineStr"/>
       <c r="AG289" t="inlineStr">
@@ -36989,146 +36957,158 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH289" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10431580_2023 E82 SEN WP Asch WRD (Mirko Martens)\</t>
-        </is>
-      </c>
+      <c r="AH289" t="inlineStr"/>
       <c r="AI289" t="n">
-        <v>49.857786</v>
+        <v>54.124391</v>
       </c>
       <c r="AJ289" t="n">
-        <v>12.461482</v>
+        <v>9.633293999999999</v>
       </c>
       <c r="AK289" t="n">
-        <v>245521</v>
+        <v>247648</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
+          <t>on hold</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Remmels</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>GE 5.3-158</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>10440879</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>SEN WP Remmels GE Wind Energy GmbH (Sabrina Apke)</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>FELPLA</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>GE Wind Energy GmbH</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>Bo Schierenbeck</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>WEA 2 von 2</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>GE552016377</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>WEA 1</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>158</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
           <t>Ja</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Regesborstel</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>V150-5.6 MW</t>
-        </is>
-      </c>
-      <c r="G290" t="n">
-        <v>10434812</v>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>SEN Regesborstel (246796)</t>
-        </is>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J290" t="inlineStr">
-        <is>
-          <t>2023-03-13</t>
-        </is>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>Notus energy Plan GmbH &amp; Co. KG</t>
-        </is>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>Paula Kock</t>
-        </is>
-      </c>
-      <c r="M290" t="inlineStr">
-        <is>
-          <t>WEA 2 von 2</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>243431</t>
-        </is>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P290" t="n">
-        <v>148</v>
-      </c>
-      <c r="Q290" t="n">
-        <v>150</v>
-      </c>
-      <c r="R290" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="S290" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
       <c r="T290" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="U290" t="inlineStr">
         <is>
-          <t>SO2</t>
-        </is>
-      </c>
-      <c r="V290" t="inlineStr"/>
-      <c r="W290" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X290" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W290" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X290" t="n">
+        <v>8.9</v>
       </c>
       <c r="Y290" t="inlineStr">
         <is>
-          <t>NW</t>
-        </is>
-      </c>
-      <c r="Z290" t="inlineStr"/>
-      <c r="AA290" t="inlineStr"/>
-      <c r="AB290" t="inlineStr"/>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA290" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="AB290" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
       <c r="AC290" t="inlineStr">
         <is>
-          <t>AP Parallel zur E-Messung</t>
-        </is>
-      </c>
-      <c r="AD290" t="inlineStr"/>
+          <t>WEA ab 2023-07-17 messklar</t>
+        </is>
+      </c>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
       <c r="AE290" t="inlineStr"/>
       <c r="AF290" t="inlineStr"/>
       <c r="AG290" t="inlineStr">
@@ -37136,136 +37116,159 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH290" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10434812_2023 V150 SEN Regesbostel Notus energy Plan GmbH (Paula Kock)\</t>
-        </is>
-      </c>
+      <c r="AH290" t="inlineStr"/>
       <c r="AI290" t="n">
-        <v>53.391086</v>
+        <v>54.130769</v>
       </c>
       <c r="AJ290" t="n">
-        <v>9.635229000000001</v>
+        <v>9.642436</v>
       </c>
       <c r="AK290" t="n">
-        <v>246796</v>
+        <v>247648</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
+          <t>on hold</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Jahrsdorf</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>GE 5.3-158</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>10440882</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>SEN WP Jahrsdorf GE Wind Energy GmbH (Sabrina Apke)</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>FELPLA</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>GE Wind Energy GmbH</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Bo Schierenbeck</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>WEA 1 von 1</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GE552016376
+</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>WEA 1</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>158</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>V136-4.2MW</t>
-        </is>
-      </c>
-      <c r="G291" t="n">
-        <v>10436796</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Thurid Kuhk</t>
-        </is>
-      </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>WEA 1 von 4</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P291" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="Q291" t="n">
-        <v>136</v>
-      </c>
-      <c r="R291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unbekannt </t>
-        </is>
-      </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
+          <t>Nein</t>
         </is>
       </c>
       <c r="U291" t="inlineStr">
         <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="V291" t="inlineStr"/>
-      <c r="W291" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="X291" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="Y291" t="inlineStr"/>
-      <c r="Z291" t="inlineStr"/>
-      <c r="AA291" t="inlineStr"/>
-      <c r="AB291" t="inlineStr"/>
-      <c r="AC291" t="inlineStr"/>
-      <c r="AD291" t="inlineStr"/>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W291" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X291" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA291" t="inlineStr">
+        <is>
+          <t>Keine</t>
+        </is>
+      </c>
+      <c r="AB291" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="AC291" t="inlineStr">
+        <is>
+          <t>WEA ab 2023-07-17 messklar</t>
+        </is>
+      </c>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
       <c r="AE291" t="inlineStr"/>
       <c r="AF291" t="inlineStr"/>
       <c r="AG291" t="inlineStr">
@@ -37273,19 +37276,15 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH291" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
+      <c r="AH291" t="inlineStr"/>
       <c r="AI291" t="n">
-        <v>54.203632</v>
+        <v>54.074517</v>
       </c>
       <c r="AJ291" t="n">
-        <v>8.854941999999999</v>
+        <v>9.621255</v>
       </c>
       <c r="AK291" t="n">
-        <v>244292</v>
+        <v>247649</v>
       </c>
     </row>
     <row r="292">
@@ -37296,110 +37295,134 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
+          <t>on hold</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Bankewitz</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>GE 5.3-158</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>10443386</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SEN WP Bankewitz wpd (Margot Petersen_Jaenicke)</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>FELPLA</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Margot Petersen m.petersen@wpd.de</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>WEA 1 von 3</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>GE552201376</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>WEA 1</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>161</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>158</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>V136-4.2MW</t>
-        </is>
-      </c>
-      <c r="G292" t="n">
-        <v>10436796</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
-        </is>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>Thurid Kuhk</t>
-        </is>
-      </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>WEA 2 von 4</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr"/>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P292" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q292" t="n">
-        <v>136</v>
-      </c>
-      <c r="R292" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="U292" t="inlineStr">
         <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="V292" t="inlineStr"/>
-      <c r="W292" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X292" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Y292" t="inlineStr"/>
-      <c r="Z292" t="inlineStr"/>
-      <c r="AA292" t="inlineStr"/>
-      <c r="AB292" t="inlineStr"/>
-      <c r="AC292" t="inlineStr"/>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W292" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X292" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA292" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="AB292" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="AC292" t="inlineStr">
+        <is>
+          <t>Bitte Messkonzept beachten; Messklarheit unbekannt</t>
+        </is>
+      </c>
       <c r="AD292" t="inlineStr"/>
       <c r="AE292" t="inlineStr"/>
       <c r="AF292" t="inlineStr"/>
@@ -37408,19 +37431,15 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH292" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
+      <c r="AH292" t="inlineStr"/>
       <c r="AI292" t="n">
-        <v>54.199191</v>
+        <v>53.021938</v>
       </c>
       <c r="AJ292" t="n">
-        <v>8.86112</v>
+        <v>10.814702</v>
       </c>
       <c r="AK292" t="n">
-        <v>244292</v>
+        <v>248235</v>
       </c>
     </row>
     <row r="293">
@@ -37431,110 +37450,134 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
+          <t>on hold</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Bankewitz</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>GE 5.3-158</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>10443386</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>SEN WP Bankewitz wpd (Margot Petersen_Jaenicke)</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>FELPLA</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Margot Petersen m.petersen@wpd.de</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>WEA 2 von 3</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>GE552201370</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>WEA 3</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>161</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>158</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>V136-4.2MW</t>
-        </is>
-      </c>
-      <c r="G293" t="n">
-        <v>10436796</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
-        </is>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>Thurid Kuhk</t>
-        </is>
-      </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>WEA 3 von 4</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr"/>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P293" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q293" t="n">
-        <v>136</v>
-      </c>
-      <c r="R293" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="U293" t="inlineStr">
         <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="V293" t="inlineStr"/>
-      <c r="W293" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X293" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Y293" t="inlineStr"/>
-      <c r="Z293" t="inlineStr"/>
-      <c r="AA293" t="inlineStr"/>
-      <c r="AB293" t="inlineStr"/>
-      <c r="AC293" t="inlineStr"/>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W293" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X293" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA293" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="AC293" t="inlineStr">
+        <is>
+          <t>Bitte Messkonzept beachten; Messklarheit unbekannt</t>
+        </is>
+      </c>
       <c r="AD293" t="inlineStr"/>
       <c r="AE293" t="inlineStr"/>
       <c r="AF293" t="inlineStr"/>
@@ -37543,19 +37586,15 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH293" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
+      <c r="AH293" t="inlineStr"/>
       <c r="AI293" t="n">
-        <v>54.196454</v>
+        <v>53.023789</v>
       </c>
       <c r="AJ293" t="n">
-        <v>8.856852999999999</v>
+        <v>10.819477</v>
       </c>
       <c r="AK293" t="n">
-        <v>244292</v>
+        <v>248235</v>
       </c>
     </row>
     <row r="294">
@@ -37566,110 +37605,134 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
+          <t>on hold</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Bankewitz</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>GE 5.3-158</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>10443386</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>SEN WP Bankewitz wpd (Margot Petersen_Jaenicke)</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>FELPLA</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>Margot Petersen m.petersen@wpd.de</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>WEA 3 von 3</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>GE552201374</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>WEA 7</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>161</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>158</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Hellschen-Heringsand-Unterschaar</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>V136-4.2MW</t>
-        </is>
-      </c>
-      <c r="G294" t="n">
-        <v>10436796</v>
-      </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>IACRUZ</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>Repowering Windpark HHU Pool GmbH</t>
-        </is>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>Thurid Kuhk</t>
-        </is>
-      </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>WEA 4 von 4</t>
-        </is>
-      </c>
-      <c r="N294" t="inlineStr"/>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P294" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q294" t="n">
-        <v>136</v>
-      </c>
-      <c r="R294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unbekannt </t>
-        </is>
-      </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unbekannt </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ja </t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="U294" t="inlineStr">
         <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="V294" t="inlineStr"/>
-      <c r="W294" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X294" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Y294" t="inlineStr"/>
-      <c r="Z294" t="inlineStr"/>
-      <c r="AA294" t="inlineStr"/>
-      <c r="AB294" t="inlineStr"/>
-      <c r="AC294" t="inlineStr"/>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W294" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X294" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA294" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="AB294" t="inlineStr">
+        <is>
+          <t>WPD</t>
+        </is>
+      </c>
+      <c r="AC294" t="inlineStr">
+        <is>
+          <t>Bitte Messkonzept beachten; Messklarheit unbekannt</t>
+        </is>
+      </c>
       <c r="AD294" t="inlineStr"/>
       <c r="AE294" t="inlineStr"/>
       <c r="AF294" t="inlineStr"/>
@@ -37678,60 +37741,54 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AH294" t="inlineStr">
-        <is>
-          <t>file:///a:\___Projekte\10436796_2023 V136 SEN WP HHU nttb (Thurid Kuhk)\</t>
-        </is>
-      </c>
+      <c r="AH294" t="inlineStr"/>
       <c r="AI294" t="n">
-        <v>54.200472</v>
+        <v>53.015971</v>
       </c>
       <c r="AJ294" t="n">
-        <v>8.850047999999999</v>
+        <v>10.833266</v>
       </c>
       <c r="AK294" t="n">
-        <v>244292</v>
+        <v>248235</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>on hold</t>
+          <t>messklar</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Remmels</t>
+          <t>Lebus</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>SEM</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>GE 5.3-158</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>10440879</t>
-        </is>
+          <t>V162-6.0</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>10444116</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>SEN WP Remmels GE Wind Energy GmbH (Sabrina Apke)</t>
+          <t>SEN WP Lebus UKA (Christian Grundmann)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -37741,27 +37798,27 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>GE Wind Energy GmbH</t>
+          <t>UKA</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Bo Schierenbeck</t>
+          <t>Christian Grundmann immission@uka-group.com</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>WEA 1 von 2</t>
+          <t>WEA 1 von 1</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>GE552016378</t>
+          <t>V245169</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -37769,15 +37826,11 @@
           <t>WEA 2</t>
         </is>
       </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>120.9</t>
-        </is>
-      </c>
-      <c r="Q295" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+      <c r="P295" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>162</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -37791,34 +37844,26 @@
       </c>
       <c r="T295" t="inlineStr">
         <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>SO2, SO4</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="U295" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="V295" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W295" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="X295" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="Y295" t="inlineStr">
-        <is>
-          <t>NW</t>
-        </is>
-      </c>
+      <c r="W295" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X295" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y295" t="inlineStr"/>
       <c r="Z295" t="inlineStr">
         <is>
           <t>Unbekannt</t>
@@ -37826,24 +37871,20 @@
       </c>
       <c r="AA295" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Aufgabe von UKA</t>
         </is>
       </c>
       <c r="AB295" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Aufgabe von UKA</t>
         </is>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
-          <t>Bins &gt; 10.5 fehlen; WEA ab 2023-07-17 messklar</t>
-        </is>
-      </c>
-      <c r="AD295" t="inlineStr">
-        <is>
-          <t>2023-06-01</t>
-        </is>
-      </c>
+          <t>WEA messklar, aber Mais um WEA</t>
+        </is>
+      </c>
+      <c r="AD295" t="inlineStr"/>
       <c r="AE295" t="inlineStr"/>
       <c r="AF295" t="inlineStr"/>
       <c r="AG295" t="inlineStr">
@@ -37852,26 +37893,20 @@
         </is>
       </c>
       <c r="AH295" t="inlineStr"/>
-      <c r="AI295" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.124391</t>
-        </is>
-      </c>
-      <c r="AJ295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9.633294</t>
-        </is>
-      </c>
-      <c r="AK295" t="inlineStr">
-        <is>
-          <t>247648</t>
-        </is>
+      <c r="AI295" t="n">
+        <v>52.442311</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>14.492995</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>248135</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -37881,32 +37916,30 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Remmels</t>
+          <t>Gaishecke</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>SEM</t>
+          <t>SEN SIM</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>GE 5.3-158</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>10440879</t>
-        </is>
+          <t>V126</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>10446590</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>SEN WP Remmels GE Wind Energy GmbH (Sabrina Apke)</t>
+          <t>SEN SIM WP Gaishecke Fichtner GmbH (Franziska Fuhs)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -37916,43 +37949,39 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>GE Wind Energy GmbH</t>
+          <t>Fichtner GmbH</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Bo Schierenbeck</t>
+          <t>Franziska.Fuhs@fichtner.de</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>WEA 2 von 2</t>
+          <t>WEA 1 von 2</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>GE552016377</t>
+          <t>V246460</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>WEA 1</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>120.9</t>
-        </is>
-      </c>
-      <c r="Q296" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+          <t>WEA 6</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>126</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -37966,28 +37995,24 @@
       </c>
       <c r="T296" t="inlineStr">
         <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>Mode 0</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="U296" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="V296" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W296" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="X296" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="W296" t="n">
+        <v>5</v>
+      </c>
+      <c r="X296" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="Y296" t="inlineStr">
         <is>
@@ -38001,24 +38026,21 @@
       </c>
       <c r="AA296" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Fichtner</t>
         </is>
       </c>
       <c r="AB296" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Aufgabe von Fichtner</t>
         </is>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
-          <t>WEA ab 2023-07-17 messklar</t>
-        </is>
-      </c>
-      <c r="AD296" t="inlineStr">
-        <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
+          <t xml:space="preserve">WEA sollen ab Mitte September in Betrieb gehen; Zeitgleich Immissionsmessung; Messkonzept noch nicht genehmigt
+</t>
+        </is>
+      </c>
+      <c r="AD296" t="inlineStr"/>
       <c r="AE296" t="inlineStr"/>
       <c r="AF296" t="inlineStr"/>
       <c r="AG296" t="inlineStr">
@@ -38027,26 +38049,20 @@
         </is>
       </c>
       <c r="AH296" t="inlineStr"/>
-      <c r="AI296" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.130769</t>
-        </is>
-      </c>
-      <c r="AJ296" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9.642436</t>
-        </is>
-      </c>
-      <c r="AK296" t="inlineStr">
-        <is>
-          <t>247648</t>
-        </is>
+      <c r="AI296" t="n">
+        <v>50.918874</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>9.933975</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>243272</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -38056,32 +38072,30 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Jahrsdorf</t>
+          <t>Gaishecke</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>SEM</t>
+          <t>SEN SIM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Vestas</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>GE 5.3-158</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>10440882</t>
-        </is>
+          <t>V126</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>10446590</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>SEN WP Jahrsdorf GE Wind Energy GmbH (Sabrina Apke)</t>
+          <t>SEN SIM WP Gaishecke Fichtner GmbH (Franziska Fuhs)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -38091,110 +38105,98 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>GE Wind Energy GmbH</t>
+          <t>Fichtner GmbH</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Bo Schierenbeck</t>
+          <t>Franziska.Fuhs@fichtner.de</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>WEA 1 von 1</t>
+          <t>WEA 2 von 2</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t xml:space="preserve">GE552016376
+          <t>V246465</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>WEA 12</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>126</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>Mode 0</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="W297" t="n">
+        <v>5</v>
+      </c>
+      <c r="X297" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="AA297" t="inlineStr">
+        <is>
+          <t>Fichtner</t>
+        </is>
+      </c>
+      <c r="AB297" t="inlineStr">
+        <is>
+          <t>Aufgabe von Fichtner</t>
+        </is>
+      </c>
+      <c r="AC297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WEA sollen ab Mitte September in Betrieb gehen; Zeitgleich Immissionsmessung; Messkonzept noch nicht genehmigt
 </t>
         </is>
       </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>WEA 1</t>
-        </is>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>120.9</t>
-        </is>
-      </c>
-      <c r="Q297" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="R297" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T297" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="U297" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="V297" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W297" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="X297" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="Y297" t="inlineStr">
-        <is>
-          <t>NW</t>
-        </is>
-      </c>
-      <c r="Z297" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA297" t="inlineStr">
-        <is>
-          <t>Keine</t>
-        </is>
-      </c>
-      <c r="AB297" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="AC297" t="inlineStr">
-        <is>
-          <t>WEA ab 2023-07-17 messklar</t>
-        </is>
-      </c>
-      <c r="AD297" t="inlineStr">
-        <is>
-          <t>2023-06-01</t>
-        </is>
-      </c>
+      <c r="AD297" t="inlineStr"/>
       <c r="AE297" t="inlineStr"/>
       <c r="AF297" t="inlineStr"/>
       <c r="AG297" t="inlineStr">
@@ -38203,1044 +38205,14 @@
         </is>
       </c>
       <c r="AH297" t="inlineStr"/>
-      <c r="AI297" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.074517</t>
-        </is>
-      </c>
-      <c r="AJ297" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9.621255</t>
-        </is>
-      </c>
-      <c r="AK297" t="inlineStr">
-        <is>
-          <t>247649</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>on hold</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Bankewitz</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>GE 5.3-158</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>10443386</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>SEN WP Bankewitz wpd (Margot Petersen_Jaenicke)</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>FELPLA</t>
-        </is>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>Margot Petersen m.petersen@wpd.de</t>
-        </is>
-      </c>
-      <c r="M298" t="inlineStr">
-        <is>
-          <t>WEA 1 von 3</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>GE552201376</t>
-        </is>
-      </c>
-      <c r="O298" t="inlineStr">
-        <is>
-          <t>WEA 1</t>
-        </is>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="Q298" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="R298" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S298" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U298" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="V298" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W298" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X298" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="Y298" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Z298" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA298" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="AB298" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="AC298" t="inlineStr">
-        <is>
-          <t>Bitte Messkonzept beachten; Messklarheit unbekannt</t>
-        </is>
-      </c>
-      <c r="AD298" t="inlineStr"/>
-      <c r="AE298" t="inlineStr"/>
-      <c r="AF298" t="inlineStr"/>
-      <c r="AG298" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AH298" t="inlineStr"/>
-      <c r="AI298" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.021938</t>
-        </is>
-      </c>
-      <c r="AJ298" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.814702</t>
-        </is>
-      </c>
-      <c r="AK298" t="inlineStr">
-        <is>
-          <t>248235</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>on hold</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Bankewitz</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>GE 5.3-158</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>10443386</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>SEN WP Bankewitz wpd (Margot Petersen_Jaenicke)</t>
-        </is>
-      </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>FELPLA</t>
-        </is>
-      </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>Margot Petersen m.petersen@wpd.de</t>
-        </is>
-      </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>WEA 2 von 3</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>GE552201370</t>
-        </is>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>WEA 3</t>
-        </is>
-      </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="Q299" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="R299" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S299" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T299" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U299" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="V299" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W299" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X299" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="Y299" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Z299" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA299" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="AB299" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="AC299" t="inlineStr">
-        <is>
-          <t>Bitte Messkonzept beachten; Messklarheit unbekannt</t>
-        </is>
-      </c>
-      <c r="AD299" t="inlineStr"/>
-      <c r="AE299" t="inlineStr"/>
-      <c r="AF299" t="inlineStr"/>
-      <c r="AG299" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AH299" t="inlineStr"/>
-      <c r="AI299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.023789</t>
-        </is>
-      </c>
-      <c r="AJ299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.819477</t>
-        </is>
-      </c>
-      <c r="AK299" t="inlineStr">
-        <is>
-          <t>248235</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>on hold</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Bankewitz</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>GE 5.3-158</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>10443386</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>SEN WP Bankewitz wpd (Margot Petersen_Jaenicke)</t>
-        </is>
-      </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>FELPLA</t>
-        </is>
-      </c>
-      <c r="J300" t="inlineStr">
-        <is>
-          <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>Margot Petersen m.petersen@wpd.de</t>
-        </is>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>WEA 3 von 3</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>GE552201374</t>
-        </is>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>WEA 7</t>
-        </is>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="Q300" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="R300" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S300" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T300" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U300" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="V300" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W300" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="X300" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="Y300" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Z300" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA300" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="AB300" t="inlineStr">
-        <is>
-          <t>WPD</t>
-        </is>
-      </c>
-      <c r="AC300" t="inlineStr">
-        <is>
-          <t>Bitte Messkonzept beachten; Messklarheit unbekannt</t>
-        </is>
-      </c>
-      <c r="AD300" t="inlineStr"/>
-      <c r="AE300" t="inlineStr"/>
-      <c r="AF300" t="inlineStr"/>
-      <c r="AG300" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AH300" t="inlineStr"/>
-      <c r="AI300" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.015971</t>
-        </is>
-      </c>
-      <c r="AJ300" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.833266</t>
-        </is>
-      </c>
-      <c r="AK300" t="inlineStr">
-        <is>
-          <t>248235</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>messklar</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Lebus</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>V162-6.0</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>10444116</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>SEN WP Lebus UKA (Christian Grundmann)</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>FELPLA</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>2023-05-25</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>UKA</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>Christian Grundmann immission@uka-group.com</t>
-        </is>
-      </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>WEA 1 von 1</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>V245169</t>
-        </is>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>WEA 2</t>
-        </is>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="Q301" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="R301" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S301" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T301" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U301" t="inlineStr">
-        <is>
-          <t>SO2, SO4</t>
-        </is>
-      </c>
-      <c r="V301" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W301" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="X301" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="Y301" t="inlineStr"/>
-      <c r="Z301" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA301" t="inlineStr">
-        <is>
-          <t>Aufgabe von UKA</t>
-        </is>
-      </c>
-      <c r="AB301" t="inlineStr">
-        <is>
-          <t>Aufgabe von UKA</t>
-        </is>
-      </c>
-      <c r="AC301" t="inlineStr">
-        <is>
-          <t>WEA messklar, aber Mais um WEA</t>
-        </is>
-      </c>
-      <c r="AD301" t="inlineStr"/>
-      <c r="AE301" t="inlineStr"/>
-      <c r="AF301" t="inlineStr"/>
-      <c r="AG301" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AH301" t="inlineStr"/>
-      <c r="AI301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 52.442311</t>
-        </is>
-      </c>
-      <c r="AJ301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 14.492995</t>
-        </is>
-      </c>
-      <c r="AK301" t="inlineStr">
-        <is>
-          <t>248135</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>on hold</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Gaishecke</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>SEN SIM</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>V126</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>10446590</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>SEN SIM WP Gaishecke Fichtner GmbH (Franziska Fuhs)</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>FELPLA</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>Fichtner GmbH</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>Franziska.Fuhs@fichtner.de</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>WEA 1 von 2</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>V246460</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr">
-        <is>
-          <t>WEA 6</t>
-        </is>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="Q302" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="R302" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S302" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T302" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U302" t="inlineStr">
-        <is>
-          <t>Mode 0</t>
-        </is>
-      </c>
-      <c r="V302" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W302" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X302" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="Y302" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Z302" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA302" t="inlineStr">
-        <is>
-          <t>Fichtner</t>
-        </is>
-      </c>
-      <c r="AB302" t="inlineStr">
-        <is>
-          <t>Aufgabe von Fichtner</t>
-        </is>
-      </c>
-      <c r="AC302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WEA sollen ab Mitte September in Betrieb gehen; Zeitgleich Immissionsmessung; Messkonzept noch nicht genehmigt
-</t>
-        </is>
-      </c>
-      <c r="AD302" t="inlineStr"/>
-      <c r="AE302" t="inlineStr"/>
-      <c r="AF302" t="inlineStr"/>
-      <c r="AG302" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AH302" t="inlineStr"/>
-      <c r="AI302" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 50.918874</t>
-        </is>
-      </c>
-      <c r="AJ302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9.933975</t>
-        </is>
-      </c>
-      <c r="AK302" t="inlineStr">
-        <is>
-          <t>243272</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>on hold</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Gaishecke</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>SEN SIM</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>Vestas</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>V126</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>10446590</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>SEN SIM WP Gaishecke Fichtner GmbH (Franziska Fuhs)</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>FELPLA</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>Fichtner GmbH</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>Franziska.Fuhs@fichtner.de</t>
-        </is>
-      </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>WEA 2 von 2</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>V246465</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>WEA 12</t>
-        </is>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="Q303" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="R303" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="S303" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="T303" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="U303" t="inlineStr">
-        <is>
-          <t>Mode 0</t>
-        </is>
-      </c>
-      <c r="V303" t="inlineStr">
-        <is>
-          <t>Nein</t>
-        </is>
-      </c>
-      <c r="W303" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X303" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="Y303" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Z303" t="inlineStr">
-        <is>
-          <t>Unbekannt</t>
-        </is>
-      </c>
-      <c r="AA303" t="inlineStr">
-        <is>
-          <t>Fichtner</t>
-        </is>
-      </c>
-      <c r="AB303" t="inlineStr">
-        <is>
-          <t>Aufgabe von Fichtner</t>
-        </is>
-      </c>
-      <c r="AC303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WEA sollen ab Mitte September in Betrieb gehen; Zeitgleich Immissionsmessung; Messkonzept noch nicht genehmigt
-</t>
-        </is>
-      </c>
-      <c r="AD303" t="inlineStr"/>
-      <c r="AE303" t="inlineStr"/>
-      <c r="AF303" t="inlineStr"/>
-      <c r="AG303" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AH303" t="inlineStr"/>
-      <c r="AI303" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 50.907580</t>
-        </is>
-      </c>
-      <c r="AJ303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9.936996</t>
-        </is>
-      </c>
-      <c r="AK303" t="inlineStr">
-        <is>
-          <t>243272</t>
-        </is>
+      <c r="AI297" t="n">
+        <v>50.90758</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>9.936996000000001</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>243272</v>
       </c>
     </row>
   </sheetData>

--- a/Projectdata_rev3.xlsx
+++ b/Projectdata_rev3.xlsx
@@ -12729,7 +12729,11 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
